--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11812.19786021075</v>
+        <v>2350627.37418194</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11812.19786021075</v>
+        <v>2350627.37418194</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28383.55368075932</v>
+        <v>1703433.706206494</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28383.55368075932</v>
+        <v>1703433.706206494</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189888404.786317</v>
+        <v>48673938.45355409</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11681.60951515478</v>
+        <v>1229816.479990816</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21883.01390394313</v>
+        <v>2205833.686248576</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32084.41829273147</v>
+        <v>3181850.892506338</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43368.053012951</v>
+        <v>4099227.645861818</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54651.6877331705</v>
+        <v>5016604.399217298</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64967.70877200257</v>
+        <v>5992621.605475058</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75283.72981083464</v>
+        <v>6968638.811732815</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85599.75084966673</v>
+        <v>7944656.017990572</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96658.14581196028</v>
+        <v>8846477.500764783</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107795.1170978364</v>
+        <v>9763980.327655615</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118931.454848359</v>
+        <v>10681357.08101109</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130067.7925988816</v>
+        <v>11598733.83436658</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141204.1303494041</v>
+        <v>12516110.58772207</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152340.4680999267</v>
+        <v>13433487.34107756</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163476.8058504493</v>
+        <v>14350864.09443305</v>
       </c>
     </row>
   </sheetData>
